--- a/airdrop/[Launch testnet] Airdrop List.xlsx
+++ b/airdrop/[Launch testnet] Airdrop List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/sales/airdrop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78B2A43-A45C-344A-89AF-E45E74856490}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0280EA-81BB-BF47-8E82-AB1DDF23CAAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,21 +37,12 @@
     <t>Phuong Nguyen</t>
   </si>
   <si>
-    <t>phuongnguyen08012@gmail.com</t>
-  </si>
-  <si>
     <t>Edouard</t>
   </si>
   <si>
-    <t>edouard.donat@gmail.com</t>
-  </si>
-  <si>
     <t>Ha Manh Trung</t>
   </si>
   <si>
-    <t>trungmh2603@gmail.com</t>
-  </si>
-  <si>
     <t>Wallet Address</t>
   </si>
   <si>
@@ -61,66 +52,36 @@
     <t>Nguyen Ngoc Son</t>
   </si>
   <si>
-    <t>Thienbinhcf1993@gmail.com</t>
-  </si>
-  <si>
     <t>Luu Van Lam</t>
   </si>
   <si>
-    <t>luuvanlamplmta@gmail.com</t>
-  </si>
-  <si>
     <t>Martin Kuiper</t>
   </si>
   <si>
-    <t>martin.kuiper@gmail.com</t>
-  </si>
-  <si>
     <t>Atty Vincent Arroyo</t>
   </si>
   <si>
-    <t>attyvincenta@gmail.com</t>
-  </si>
-  <si>
     <t>Trinh Van Tan</t>
   </si>
   <si>
-    <t>trinh.van.tan@sun-asterisk.com</t>
-  </si>
-  <si>
     <t>HANOI BLOCKCHAIN MEET UP</t>
   </si>
   <si>
     <t>Leon</t>
   </si>
   <si>
-    <t>leon@blockchainhanoi.org</t>
-  </si>
-  <si>
     <t>Rémy Peretti</t>
   </si>
   <si>
-    <t>leimi06@gmail.com</t>
-  </si>
-  <si>
     <t>Hiep Vu</t>
   </si>
   <si>
-    <t>hiepcopywriter@gmail.com</t>
-  </si>
-  <si>
     <t>Hau hoang</t>
   </si>
   <si>
-    <t>hauht.hut@gmail.com</t>
-  </si>
-  <si>
     <t>Wilfried Passée-Coutrin</t>
   </si>
   <si>
-    <t>wilfried.passeecoutrin@gmail.com</t>
-  </si>
-  <si>
     <t>0x909**********************************************add83</t>
   </si>
   <si>
@@ -158,23 +119,56 @@
   </si>
   <si>
     <t>0x8eb**********************************************a5dcc</t>
+  </si>
+  <si>
+    <t>edo*********at@gmail.com</t>
+  </si>
+  <si>
+    <t>tru*********03@gmail.com</t>
+  </si>
+  <si>
+    <t>Thi*********93@gmail.com</t>
+  </si>
+  <si>
+    <t>luu*********ta@gmail.com</t>
+  </si>
+  <si>
+    <t>mar*********er@gmail.com</t>
+  </si>
+  <si>
+    <t>att*********ta@gmail.com</t>
+  </si>
+  <si>
+    <t>tri*********asterisk.com</t>
+  </si>
+  <si>
+    <t>leo*********ainhanoi.org</t>
+  </si>
+  <si>
+    <t>lei*********06@gmail.com</t>
+  </si>
+  <si>
+    <t>phu*********12@gmail.com</t>
+  </si>
+  <si>
+    <t>hie*********er@gmail.com</t>
+  </si>
+  <si>
+    <t>hau*********ut@gmail.com</t>
+  </si>
+  <si>
+    <t>wil*********in@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -183,12 +177,6 @@
       <name val="Times Roman"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times Roman"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times Roman"/>
@@ -225,25 +213,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,21 +451,21 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="51.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="45.5" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="14.5" style="2"/>
+    <col min="5" max="5" width="51.1640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="45.5" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="14.5" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,246 +479,246 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="3">
+        <v>500</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="3">
+        <v>100</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="3">
+        <v>100</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="C6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="3">
+        <v>100</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A3" s="3">
+      <c r="C7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="3">
+        <v>100</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A11" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="3">
+        <v>100</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A12" s="4">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A13" s="4">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="3">
+        <v>100</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A14" s="4">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A15" s="4">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="3">
+        <v>100</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A16" s="4">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4">
-        <v>500</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4">
-        <v>100</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4">
-        <v>100</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4">
-        <v>100</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="4">
-        <v>100</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="4">
-        <v>100</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="4">
-        <v>100</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A11" s="6">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="4">
-        <v>100</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A12" s="6">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="4">
-        <v>100</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A13" s="6">
-        <v>3</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="4">
-        <v>100</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A14" s="6">
-        <v>4</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="4">
-        <v>100</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A15" s="6">
-        <v>5</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="4">
-        <v>100</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A16" s="6">
-        <v>6</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="3">
+        <v>100</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="D16" s="4">
-        <v>100</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/airdrop/[Launch testnet] Airdrop List.xlsx
+++ b/airdrop/[Launch testnet] Airdrop List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/sales/airdrop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0280EA-81BB-BF47-8E82-AB1DDF23CAAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0642460B-D6FD-AF4C-87EB-274AD94944A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -223,11 +223,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -451,21 +451,21 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="51.1640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="45.5" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="14.5" style="6"/>
+    <col min="1" max="1" width="7.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="51.1640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="45.5" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="14.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,242 +482,242 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="3">
         <v>500</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="3">
         <v>100</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="3">
         <v>100</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="3">
         <v>100</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="3">
         <v>100</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="4">
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="3">
         <v>100</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="4">
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="4">
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="3">
         <v>100</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="4">
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="4">
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D15" s="3">
         <v>100</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="4">
         <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="3">
         <v>100</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>32</v>
       </c>
     </row>
